--- a/500LinesEveryday/Revit二次开发笔记.xlsx
+++ b/500LinesEveryday/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A0597E-FFDB-483C-B0B0-16C6739ABA8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634B544D-4FE5-4D89-9811-87BBA4790A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="60" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="208">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -856,12 +856,267 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>3.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素编辑器的层次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速过滤:Quickfilters : 只检查记录的元素并防止在内存中展开,快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢速过滤器: Slowfilters : 先在内存中存取和展开元素, 再进行查询. 慢.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑过滤器:Logicalfilters : 两个及以上的过滤器逻辑组成的过滤器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内建过滤器 Built-In filters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogicalAndFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogicalOrFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementCategoryFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WherePasses() ; IntersectWith() 合并两个独立过滤器的集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unionwith() 合并两个独立过滤器的集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OfCategoryId()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合传入的类别ID的元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElmentMulticategoryFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合任何一个传如的类别ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementClassFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合出入类的元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OfClass()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementMulticlassFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合任意一个传入类的元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementIsElementTypeFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是元素类型的元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WhereElementIsElementType()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WhereElementNotElementType()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementOwnerViewFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是视图相关的元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnedByView()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WhereElementIsViewIndependent()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3..4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素快速过滤器 ElementQuickFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类别Category</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来过滤</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类Class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过滤</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementIsElmentTypeFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是用来匹配元素类型的过滤器, 可以过滤文档中所有元素类型的元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或者过滤出所有非元素类型的元素</t>
+  </si>
+  <si>
+    <t>点这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 参考链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Revit中的Category、Family、FamilySymbol与FamilyInstance 的理解 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型相关:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> Family family=familysymbol.Family;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从族类型获取族的方式如下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,6 +1187,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1520,13 +1782,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -1963,7 +2229,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>3</v>
       </c>
@@ -1971,7 +2237,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>3.1</v>
       </c>
@@ -1979,7 +2245,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>3.2</v>
       </c>
@@ -1987,7 +2253,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>3.3</v>
       </c>
@@ -1995,27 +2261,258 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>4</v>
       </c>
       <c r="B70" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77" t="s">
+        <v>173</v>
+      </c>
+      <c r="F77" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" t="s">
+        <v>175</v>
+      </c>
+      <c r="F78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" t="s">
+        <v>175</v>
+      </c>
+      <c r="F79" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" t="s">
+        <v>177</v>
+      </c>
+      <c r="F80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>178</v>
+      </c>
+      <c r="D81" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82" t="s">
+        <v>176</v>
+      </c>
+      <c r="E82" t="s">
+        <v>181</v>
+      </c>
+      <c r="F82" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" t="s">
+        <v>176</v>
+      </c>
+      <c r="E83" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>185</v>
+      </c>
+      <c r="E84" t="s">
+        <v>186</v>
+      </c>
+      <c r="F84" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>189</v>
+      </c>
+      <c r="D86" t="s">
+        <v>176</v>
+      </c>
+      <c r="E86" t="s">
+        <v>190</v>
+      </c>
+      <c r="F86" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>194</v>
+      </c>
+      <c r="B89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>180</v>
+      </c>
+      <c r="D91" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D92" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>205</v>
+      </c>
+      <c r="B95" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1" xr:uid="{6261FA76-B032-41CA-A069-6D79FA838B23}"/>
+    <hyperlink ref="C96" r:id="rId2" xr:uid="{B4853553-3272-45BD-92E4-472547102DDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/500LinesEveryday/Revit二次开发笔记.xlsx
+++ b/500LinesEveryday/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634B544D-4FE5-4D89-9811-87BBA4790A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB57E19-1BD6-4A58-800A-5889ABFED164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="60" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11052" yWindow="1440" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="213">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -671,20 +671,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">//修改为doc.Create.NewModelCurve, 能正确运行.
- </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">//书上的doc.FamilyCreate.NewModelCurve,已经不能运行.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//ModelCurve modelCircle = doc.FamilyCreate.NewModelCurve(arc,sketchPlane);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FileteredElementCollector</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -828,32 +814,6 @@
   </si>
   <si>
     <t>doc.Create.NewModelCurve  创建模型线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ModelCurve modelCircle = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>doc.Create.NewModelCurve</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(arc, sketchPlane);</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1109,6 +1069,38 @@
   </si>
   <si>
     <t>从族类型获取族的方式如下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> //ModelCurve modelCircle = doc.FamilyCreate.NewModelCurve(arc,sketchPlane); </t>
+  </si>
+  <si>
+    <t>//书上的doc.FamilyCreate.NewModelCurve 只能在族编辑模式运行,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ModelCurve modelCircle = doc.Create.NewModelCurve(arc, sketchPlane);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代码3-32 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//修改为doc.Create.NewModelCurve 才能在rvt普通文档运行.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每个函数都有它的运行环境,如果你想调用这个方法
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用这个函数 IsFamilyDocument 先判断一下doc的类型.</t>
+  </si>
+  <si>
+    <t>在族编辑模式下运行.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1365,7 +1357,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1622,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="B11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1759,15 +1751,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1782,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2030,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -2040,476 +2038,499 @@
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>118</v>
-      </c>
+    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-    </row>
-    <row r="42" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
         <v>1</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
+      <c r="B45" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>129</v>
-      </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="B56" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="B52" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B56" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
+      <c r="A58" s="12" t="s">
+        <v>133</v>
+      </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
-        <v>142</v>
-      </c>
+      <c r="A61" s="12"/>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
+      <c r="A63" s="12" t="s">
+        <v>139</v>
+      </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="12">
-        <v>2</v>
-      </c>
+      <c r="A64" s="12"/>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="12">
-        <v>3</v>
-      </c>
+      <c r="A65" s="12"/>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
+      <c r="A69" s="12">
+        <v>3.2</v>
+      </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="12"/>
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="12">
         <v>4</v>
       </c>
-      <c r="B70" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>158</v>
-      </c>
       <c r="B72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>163</v>
-      </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>172</v>
-      </c>
-      <c r="D77" t="s">
-        <v>174</v>
-      </c>
-      <c r="E77" t="s">
-        <v>173</v>
-      </c>
-      <c r="F77" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>159</v>
+      </c>
       <c r="B78" t="s">
-        <v>165</v>
-      </c>
-      <c r="D78" t="s">
-        <v>175</v>
-      </c>
-      <c r="F78" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D79" t="s">
-        <v>175</v>
+        <v>170</v>
+      </c>
+      <c r="E79" t="s">
+        <v>169</v>
       </c>
       <c r="F79" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D80" t="s">
-        <v>176</v>
-      </c>
-      <c r="E80" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F80" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D81" t="s">
-        <v>176</v>
-      </c>
-      <c r="E81" t="s">
-        <v>179</v>
+        <v>171</v>
+      </c>
+      <c r="F81" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D82" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E82" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F82" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D83" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E83" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>185</v>
+        <v>176</v>
+      </c>
+      <c r="D84" t="s">
+        <v>172</v>
       </c>
       <c r="E84" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F84" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F85" t="s">
-        <v>188</v>
+      <c r="B85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D85" t="s">
+        <v>172</v>
+      </c>
+      <c r="E85" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>189</v>
-      </c>
-      <c r="D86" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E86" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F86" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>193</v>
+        <v>185</v>
+      </c>
+      <c r="D88" t="s">
+        <v>172</v>
+      </c>
+      <c r="E88" t="s">
+        <v>186</v>
+      </c>
+      <c r="F88" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>194</v>
-      </c>
-      <c r="B89" t="s">
-        <v>195</v>
+      <c r="F89" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>167</v>
-      </c>
-      <c r="D90" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>190</v>
+      </c>
       <c r="B91" t="s">
-        <v>180</v>
-      </c>
-      <c r="D91" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
+        <v>163</v>
+      </c>
+      <c r="D92" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
         <v>198</v>
       </c>
-      <c r="D92" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
+      <c r="D98" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>205</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
         <v>202</v>
       </c>
-      <c r="C96" s="8" t="s">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1" xr:uid="{6261FA76-B032-41CA-A069-6D79FA838B23}"/>
-    <hyperlink ref="C96" r:id="rId2" xr:uid="{B4853553-3272-45BD-92E4-472547102DDF}"/>
+    <hyperlink ref="D98" r:id="rId2" xr:uid="{B4853553-3272-45BD-92E4-472547102DDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId3"/>

--- a/500LinesEveryday/Revit二次开发笔记.xlsx
+++ b/500LinesEveryday/Revit二次开发笔记.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\课堂仓库\QZH\500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB57E19-1BD6-4A58-800A-5889ABFED164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F355239B-D172-45A5-B3DB-06C5932BB7D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11052" yWindow="1440" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="885" windowWidth="16500" windowHeight="13710" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1108,7 +1108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,6 +1191,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1225,7 +1233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1263,6 +1271,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1270,74 +1279,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1357,7 +1298,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1618,18 +1559,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="24.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="13">
         <v>43833</v>
       </c>
@@ -1649,7 +1590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -1663,7 +1604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1674,7 +1615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -1688,7 +1629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -1699,7 +1640,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="151.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -1716,7 +1657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -1724,7 +1665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -1732,7 +1673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -1740,7 +1681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -1751,7 +1692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -1782,18 +1723,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1809,7 +1750,7 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>89</v>
@@ -1823,7 +1764,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.1000000000000001</v>
       </c>
@@ -1831,7 +1772,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.2</v>
       </c>
@@ -1839,7 +1780,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.3</v>
       </c>
@@ -1847,7 +1788,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.4</v>
       </c>
@@ -1855,7 +1796,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.5</v>
       </c>
@@ -1863,25 +1804,25 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -1897,7 +1838,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>94</v>
@@ -1911,7 +1852,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2.1</v>
       </c>
@@ -1919,7 +1860,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2.2000000000000002</v>
       </c>
@@ -1927,7 +1868,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2.2999999999999998</v>
       </c>
@@ -1935,7 +1876,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2.4</v>
       </c>
@@ -1943,7 +1884,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -1951,28 +1892,28 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>1</v>
       </c>
@@ -1983,47 +1924,47 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.2</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1.3</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>1</v>
       </c>
@@ -2038,7 +1979,7 @@
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>207</v>
@@ -2051,22 +1992,22 @@
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
       <c r="B41" s="17" t="s">
         <v>208</v>
@@ -2079,18 +2020,18 @@
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
     </row>
-    <row r="42" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>1</v>
       </c>
@@ -2106,7 +2047,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>1.1000000000000001</v>
       </c>
@@ -2114,13 +2055,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
       <c r="B47" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>126</v>
       </c>
@@ -2128,13 +2069,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
       <c r="B49" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>129</v>
       </c>
@@ -2142,13 +2083,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
       <c r="B51" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>130</v>
       </c>
@@ -2156,13 +2097,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
       <c r="B53" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>1.2</v>
       </c>
@@ -2170,7 +2111,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>131</v>
       </c>
@@ -2178,19 +2119,19 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
       <c r="B56" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
       <c r="B57" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>133</v>
       </c>
@@ -2198,31 +2139,31 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="12"/>
       <c r="B59" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
       <c r="B61" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
       <c r="B62" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>139</v>
       </c>
@@ -2230,19 +2171,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="12"/>
       <c r="B64" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="12">
         <v>2</v>
       </c>
@@ -2250,7 +2191,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
         <v>3</v>
       </c>
@@ -2258,7 +2199,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="12">
         <v>3.1</v>
       </c>
@@ -2266,7 +2207,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="12">
         <v>3.2</v>
       </c>
@@ -2274,7 +2215,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="12">
         <v>3.3</v>
       </c>
@@ -2282,13 +2223,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="12"/>
       <c r="B71" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>4</v>
       </c>
@@ -2296,7 +2237,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>154</v>
       </c>
@@ -2304,22 +2245,22 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>159</v>
       </c>
@@ -2327,7 +2268,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>168</v>
       </c>
@@ -2341,7 +2282,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>161</v>
       </c>
@@ -2352,7 +2293,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>162</v>
       </c>
@@ -2363,7 +2304,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>163</v>
       </c>
@@ -2377,7 +2318,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>174</v>
       </c>
@@ -2388,7 +2329,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>176</v>
       </c>
@@ -2402,7 +2343,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>179</v>
       </c>
@@ -2413,7 +2354,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>181</v>
       </c>
@@ -2424,12 +2365,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F87" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>185</v>
       </c>
@@ -2443,17 +2384,17 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F89" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>190</v>
       </c>
@@ -2461,7 +2402,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>163</v>
       </c>
@@ -2469,7 +2410,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>176</v>
       </c>
@@ -2477,7 +2418,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>194</v>
       </c>
@@ -2485,12 +2426,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>201</v>
       </c>
@@ -2498,7 +2439,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>198</v>
       </c>
@@ -2506,22 +2447,22 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C100" s="18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>201</v>
       </c>
@@ -2533,7 +2474,7 @@
     <hyperlink ref="D98" r:id="rId2" xr:uid="{B4853553-3272-45BD-92E4-472547102DDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2545,20 +2486,20 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="40" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="23.875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2566,72 +2507,72 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2639,7 +2580,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
@@ -2650,7 +2591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -2661,7 +2602,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -2675,7 +2616,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -2683,7 +2624,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -2691,7 +2632,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
@@ -2699,7 +2640,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -2707,12 +2648,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -2720,17 +2661,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
@@ -2738,12 +2679,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>61</v>
       </c>
@@ -2751,17 +2692,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>65</v>
       </c>
@@ -2769,32 +2710,32 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="128.25" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>72</v>
       </c>
@@ -2802,17 +2743,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>76</v>
       </c>
@@ -2820,17 +2761,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>81</v>
       </c>
@@ -2838,7 +2779,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>83</v>
       </c>
@@ -2846,12 +2787,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
         <v>86</v>
       </c>

--- a/500LinesEveryday/Revit二次开发笔记.xlsx
+++ b/500LinesEveryday/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB57E19-1BD6-4A58-800A-5889ABFED164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9840EFB-AE22-494E-A16C-F5B673041C9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11052" yWindow="1440" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11052" yWindow="456" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="225">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -1101,6 +1101,54 @@
   </si>
   <si>
     <t>check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平开门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单扇门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FamilySymbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Family</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档中已经画的门图元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class是什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FamilySymbolFilter 利用传入的族来得到其所有族类型的过滤器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900x2100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FamilyInstance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1357,7 +1405,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1780,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2490,7 +2538,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>201</v>
       </c>
@@ -2498,7 +2546,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>198</v>
       </c>
@@ -2506,24 +2554,71 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C100" s="18" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>213</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" t="s">
+        <v>219</v>
+      </c>
+      <c r="F99" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>218</v>
+      </c>
+      <c r="F100" t="s">
+        <v>215</v>
+      </c>
+      <c r="G100" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>217</v>
+      </c>
+      <c r="F101" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>224</v>
+      </c>
+      <c r="F102" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>201</v>
+      </c>
+      <c r="B107" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/500LinesEveryday/Revit二次开发笔记.xlsx
+++ b/500LinesEveryday/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9840EFB-AE22-494E-A16C-F5B673041C9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03695808-27A9-45B6-B5AA-D95AFA8CF464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11052" yWindow="456" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -591,23 +591,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Creat(Document document, ElementId elementId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从网格, 引用平面或者标高等元素创建一个草图平面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Creat(Document document,Plane plane)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从一个几何平面创建一个草图平面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Creat(Document document, Reference planarFaceReference</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1149,6 +1137,18 @@
   </si>
   <si>
     <t>FamilyInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create(Document document, ElementId elementId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create(Document document,Plane plane)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create(Document document, Reference planarFaceReference</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1662,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1758,7 +1758,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
@@ -1804,16 +1804,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1830,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2036,12 +2036,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2049,12 +2049,12 @@
         <v>1.2</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2062,12 +2062,12 @@
         <v>1.3</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2076,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -2089,7 +2089,7 @@
     <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -2101,23 +2101,23 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -2129,12 +2129,12 @@
     </row>
     <row r="42" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -2159,55 +2159,55 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2215,79 +2215,79 @@
         <v>1.2</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2295,7 +2295,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2303,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2311,7 +2311,7 @@
         <v>3.1</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2319,7 +2319,7 @@
         <v>3.2</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2327,13 +2327,13 @@
         <v>3.3</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2341,284 +2341,284 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D79" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E79" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D80" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F80" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D81" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F81" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D82" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E82" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F82" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D83" t="s">
+        <v>169</v>
+      </c>
+      <c r="E83" t="s">
         <v>172</v>
-      </c>
-      <c r="E83" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D84" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E84" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F84" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D85" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E85" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E86" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E88" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F88" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B91" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D92" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D93" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D94" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F99" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F100" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G100" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F101" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F102" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C104" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B107" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/500LinesEveryday/Revit二次开发笔记.xlsx
+++ b/500LinesEveryday/Revit二次开发笔记.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03695808-27A9-45B6-B5AA-D95AFA8CF464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F185B7-0A24-4505-A2B4-F88D76C8A397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="知识点积累" sheetId="7" r:id="rId2"/>
     <sheet name="正则表达式" sheetId="2" r:id="rId3"/>
+    <sheet name="Revit的结构" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="229">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -1149,6 +1150,20 @@
   </si>
   <si>
     <t>Create(Document document, Reference planarFaceReference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementClassFilter(typeof(FamilySymbol))</t>
+  </si>
+  <si>
+    <t>OfClass(typeof(Wall));</t>
+  </si>
+  <si>
+    <t>wall是系统族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推测同一行的都是type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1395,6 +1410,183 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295836</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>157291</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>58091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370092C3-D814-4B9E-84B9-EE31C0E56BB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3953436" y="125506"/>
+          <a:ext cx="4738255" cy="4235644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>233084</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>233084</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>26445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54C9036-03AE-43E3-A78B-769318956006}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8767484" y="152399"/>
+          <a:ext cx="5486400" cy="1846281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>242047</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>540020</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>21065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33369289-268B-4528-BB8F-665159C4BF9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8776447" y="2079810"/>
+          <a:ext cx="3345973" cy="3857961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1662,7 +1854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1830,8 +2022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="L101" sqref="L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2518,9 +2710,6 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>173</v>
-      </c>
       <c r="D93" t="s">
         <v>190</v>
       </c>
@@ -2958,4 +3147,49 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EBBA22-5A26-4E70-B66C-662F4FFAF44E}">
+  <dimension ref="A2:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19:V19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/500LinesEveryday/Revit二次开发笔记.xlsx
+++ b/500LinesEveryday/Revit二次开发笔记.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F185B7-0A24-4505-A2B4-F88D76C8A397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B75FAF1-239F-4519-A2A4-5F2D4209C216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="知识点积累" sheetId="7" r:id="rId2"/>
     <sheet name="正则表达式" sheetId="2" r:id="rId3"/>
-    <sheet name="Revit的结构" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="250">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -1153,17 +1152,255 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ElementClassFilter(typeof(FamilySymbol))</t>
-  </si>
-  <si>
-    <t>OfClass(typeof(Wall));</t>
-  </si>
-  <si>
-    <t>wall是系统族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推测同一行的都是type</t>
+    <t>[csharp]</t>
+  </si>
+  <si>
+    <t>FamilyInstance instance;</t>
+  </si>
+  <si>
+    <t>var typeid = instance.GetTypeId();</t>
+  </si>
+  <si>
+    <t>var symbol = RevitDoc.GetElement(typeid) as FamilySymbol;</t>
+  </si>
+  <si>
+    <t>var familyName = symbol.Family.Name;</t>
+  </si>
+  <si>
+    <t>但是对于系统族是获取不到Family的。我们的解决办法是：</t>
+  </si>
+  <si>
+    <t>1. 如果使用的是Revit 2014以前的版本，可以尝试使用一个隐藏的内建参数“族名称” SYMBOL_FAMILY_NAME_PARAM，使用方法如下：</t>
+  </si>
+  <si>
+    <t>Parameter symbolNameParameter = ceilingType.get_Parameter(</t>
+  </si>
+  <si>
+    <t>BuiltInParameter.SYMBOL_FAMILY_NAME_PARAM);</t>
+  </si>
+  <si>
+    <t>if (symbolNameParameter != null &amp;&amp;</t>
+  </si>
+  <si>
+    <t>symbolNameParameter.StorageType == StorageType.String)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>string symbolName = symbolNameParameter.AsString();</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>2. 如果您使用的是Revit 2015或者之后的版本，除了可以使用上面的方法，还可以用一个更简便的方法ElementType.FamilyName：</t>
+  </si>
+  <si>
+    <t>string symbolName = ceilingType.FamilyName;</t>
+  </si>
+  <si>
+    <t>其中FamilyName是ElementType的新的属性。</t>
+  </si>
+  <si>
+    <t>同样这个方法适用于FamilySymbol:</t>
+  </si>
+  <si>
+    <t>var familyName = symbol.FamilyName;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对于自定义的族，我们可以使用如下方式，先从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="XinGothic-SinaWeibo"/>
+        <family val="2"/>
+      </rPr>
+      <t>FamilyInstance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="XinGothic-SinaWeibo"/>
+        <family val="2"/>
+      </rPr>
+      <t>FamilySymbol,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="XinGothic-SinaWeibo"/>
+        <family val="2"/>
+      </rPr>
+      <t>FamilySymbol.Family</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拿到对应的族，最后调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="XinGothic-SinaWeibo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属性。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RevitAPI: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="XinGothic-SinaWeibo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统族名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="XinGothic-SinaWeibo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>族名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>写了个类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="XinGothic-SinaWeibo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>暂时够用了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="XinGothic-SinaWeibo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyTestClass.GetNameFromElement()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 获取墙柱的面的面积
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已改.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1171,7 +1408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1254,6 +1491,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="XinGothic-SinaWeibo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="XinGothic-SinaWeibo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="XinGothic-SinaWeibo"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1288,7 +1564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1326,6 +1602,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1410,183 +1690,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295836</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>157291</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>58091</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="&#10;">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370092C3-D814-4B9E-84B9-EE31C0E56BB9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3953436" y="125506"/>
-          <a:ext cx="4738255" cy="4235644"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>233084</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>233084</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>26445</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54C9036-03AE-43E3-A78B-769318956006}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8767484" y="152399"/>
-          <a:ext cx="5486400" cy="1846281"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>242047</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>107575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>540020</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>21065</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33369289-268B-4528-BB8F-665159C4BF9D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8776447" y="2079810"/>
-          <a:ext cx="3345973" cy="3857961"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1854,22 +1957,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.5546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="31.2">
       <c r="A1" s="13">
         <v>43833</v>
       </c>
@@ -1889,7 +1992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -1899,11 +2002,14 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="41.4">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1914,7 +2020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="27.6">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -1928,7 +2034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -1939,7 +2045,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="151.19999999999999" customHeight="1">
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -1956,7 +2062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.6" customHeight="1">
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -1964,15 +2070,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="41.4">
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -1980,7 +2089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -1991,7 +2100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="27.6">
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -2020,20 +2129,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="L101" sqref="L101"/>
+    <sheetView topLeftCell="A91" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="15" customFormat="1"/>
+    <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2049,7 +2158,7 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.399999999999999">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>89</v>
@@ -2063,7 +2172,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1.1000000000000001</v>
       </c>
@@ -2071,7 +2180,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1.2</v>
       </c>
@@ -2079,7 +2188,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>1.3</v>
       </c>
@@ -2087,7 +2196,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>1.4</v>
       </c>
@@ -2095,7 +2204,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>1.5</v>
       </c>
@@ -2103,25 +2212,25 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="17.399999999999999">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -2137,7 +2246,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="17.399999999999999">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>94</v>
@@ -2151,7 +2260,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>2.1</v>
       </c>
@@ -2159,7 +2268,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>2.2000000000000002</v>
       </c>
@@ -2167,7 +2276,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2.2999999999999998</v>
       </c>
@@ -2175,7 +2284,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>2.4</v>
       </c>
@@ -2183,7 +2292,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -2191,28 +2300,28 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="B23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="B24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="B25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="15" customFormat="1"/>
+    <row r="27" spans="1:5" ht="17.399999999999999">
       <c r="A27" s="10">
         <v>1</v>
       </c>
@@ -2223,7 +2332,7 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>1.1000000000000001</v>
       </c>
@@ -2231,12 +2340,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="B29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>1.2</v>
       </c>
@@ -2244,12 +2353,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>1.3</v>
       </c>
@@ -2257,13 +2366,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="B33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="15" customFormat="1"/>
+    <row r="36" spans="1:10" ht="17.399999999999999">
       <c r="A36" s="10">
         <v>1</v>
       </c>
@@ -2278,7 +2387,7 @@
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.399999999999999">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>204</v>
@@ -2291,22 +2400,22 @@
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="B38" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="B39" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="B40" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="18" customFormat="1">
       <c r="A41" s="16"/>
       <c r="B41" s="17" t="s">
         <v>205</v>
@@ -2319,18 +2428,18 @@
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
     </row>
-    <row r="42" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="18" customFormat="1">
       <c r="B42" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="18" customFormat="1">
       <c r="B43" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="15" customFormat="1"/>
+    <row r="45" spans="1:10" ht="17.399999999999999">
       <c r="A45" s="11">
         <v>1</v>
       </c>
@@ -2346,7 +2455,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="12">
         <v>1.1000000000000001</v>
       </c>
@@ -2354,13 +2463,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="12"/>
       <c r="B47" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="12" t="s">
         <v>123</v>
       </c>
@@ -2368,13 +2477,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="12"/>
       <c r="B49" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="12" t="s">
         <v>126</v>
       </c>
@@ -2382,13 +2491,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="12"/>
       <c r="B51" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="12" t="s">
         <v>127</v>
       </c>
@@ -2396,13 +2505,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="12"/>
       <c r="B53" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="12">
         <v>1.2</v>
       </c>
@@ -2410,7 +2519,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="12" t="s">
         <v>128</v>
       </c>
@@ -2418,19 +2527,19 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="12"/>
       <c r="B56" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="12"/>
       <c r="B57" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="12" t="s">
         <v>130</v>
       </c>
@@ -2438,31 +2547,31 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="12"/>
       <c r="B59" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="12"/>
       <c r="B60" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="12"/>
       <c r="B61" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="12"/>
       <c r="B62" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="12" t="s">
         <v>136</v>
       </c>
@@ -2470,19 +2579,19 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="12"/>
       <c r="B64" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="12"/>
       <c r="B65" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="12">
         <v>2</v>
       </c>
@@ -2490,7 +2599,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="12">
         <v>3</v>
       </c>
@@ -2498,7 +2607,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="12">
         <v>3.1</v>
       </c>
@@ -2506,7 +2615,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="12">
         <v>3.2</v>
       </c>
@@ -2514,7 +2623,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="12">
         <v>3.3</v>
       </c>
@@ -2522,13 +2631,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="12"/>
       <c r="B71" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" s="12">
         <v>4</v>
       </c>
@@ -2536,7 +2645,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>151</v>
       </c>
@@ -2544,22 +2653,22 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="B75" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="B76" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="B77" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>156</v>
       </c>
@@ -2567,7 +2676,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="B79" t="s">
         <v>165</v>
       </c>
@@ -2581,7 +2690,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="B80" t="s">
         <v>158</v>
       </c>
@@ -2592,7 +2701,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="B81" t="s">
         <v>159</v>
       </c>
@@ -2603,7 +2712,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="B82" t="s">
         <v>160</v>
       </c>
@@ -2617,7 +2726,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="B83" t="s">
         <v>171</v>
       </c>
@@ -2628,7 +2737,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="B84" t="s">
         <v>173</v>
       </c>
@@ -2642,7 +2751,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="B85" t="s">
         <v>176</v>
       </c>
@@ -2653,7 +2762,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="B86" t="s">
         <v>178</v>
       </c>
@@ -2664,12 +2773,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="F87" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="B88" t="s">
         <v>182</v>
       </c>
@@ -2683,17 +2792,17 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="F89" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="B90" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>187</v>
       </c>
@@ -2701,7 +2810,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="B92" t="s">
         <v>160</v>
       </c>
@@ -2709,12 +2818,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="D93" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="B94" t="s">
         <v>191</v>
       </c>
@@ -2722,12 +2831,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="D95" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>198</v>
       </c>
@@ -2735,7 +2844,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="C98" t="s">
         <v>195</v>
       </c>
@@ -2743,7 +2852,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="C99" t="s">
         <v>210</v>
       </c>
@@ -2755,7 +2864,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="E100" t="s">
         <v>215</v>
       </c>
@@ -2766,7 +2875,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="E101" t="s">
         <v>214</v>
       </c>
@@ -2774,7 +2883,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="E102" t="s">
         <v>221</v>
       </c>
@@ -2782,32 +2891,179 @@
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="E103" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="C104" s="18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="C105" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="C106" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>198</v>
       </c>
       <c r="B107" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="18" customFormat="1"/>
+    <row r="111" spans="1:7" ht="21">
+      <c r="B111" s="20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="20.399999999999999">
+      <c r="B112" s="20"/>
+    </row>
+    <row r="113" spans="2:2" ht="14.4">
+      <c r="B113" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="B132" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="B133" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="B134" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="B135" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4">
+      <c r="B138" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" s="18" customFormat="1">
+      <c r="B140" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2825,11 +3081,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F19A328-C3A2-44A6-ADFF-C9F20C374AAC}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="6.109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="40" style="3" customWidth="1"/>
@@ -2837,12 +3093,12 @@
     <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="27.6">
       <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2850,72 +3106,72 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2923,7 +3179,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="27.6">
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
@@ -2934,7 +3190,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="27.6">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -2945,7 +3201,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="27.6">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -2959,7 +3215,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="27.6">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -2967,7 +3223,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -2975,7 +3231,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="69">
       <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
@@ -2983,7 +3239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -2991,12 +3247,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="B25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -3004,17 +3260,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="B28" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
@@ -3022,12 +3278,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
         <v>61</v>
       </c>
@@ -3035,17 +3291,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="B33" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="27.6">
       <c r="A34" s="3" t="s">
         <v>65</v>
       </c>
@@ -3053,32 +3309,32 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="B35" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="B36" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="B37" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="B38" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="124.2">
       <c r="B39" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="27.6">
       <c r="A40" s="3" t="s">
         <v>72</v>
       </c>
@@ -3086,17 +3342,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="B42" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
         <v>76</v>
       </c>
@@ -3104,17 +3360,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="B44" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="B45" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>81</v>
       </c>
@@ -3122,7 +3378,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="B47" s="3" t="s">
         <v>83</v>
       </c>
@@ -3130,12 +3386,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="B48" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2">
       <c r="B49" s="6" t="s">
         <v>86</v>
       </c>
@@ -3147,49 +3403,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EBBA22-5A26-4E70-B66C-662F4FFAF44E}">
-  <dimension ref="A2:E4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19:V19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/500LinesEveryday/Revit二次开发笔记.xlsx
+++ b/500LinesEveryday/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B75FAF1-239F-4519-A2A4-5F2D4209C216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148253D1-4BA1-4BE0-A28F-775361BF6B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6768" yWindow="456" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="251">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -1401,6 +1401,10 @@
   </si>
   <si>
     <t>已改.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExclusionFilter : 自动排除元素的过滤器.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1957,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2070,7 +2074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="41.4">
+    <row r="8" spans="1:6" ht="27.6">
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -2100,7 +2104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27.6">
+    <row r="11" spans="1:6">
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -2129,10 +2133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2919,150 +2923,155 @@
         <v>219</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="18" customFormat="1"/>
-    <row r="111" spans="1:7" ht="21">
-      <c r="B111" s="20" t="s">
+    <row r="109" spans="1:7">
+      <c r="B109" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" s="18" customFormat="1"/>
+    <row r="117" spans="2:2" ht="21">
+      <c r="B117" s="20" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="20.399999999999999">
-      <c r="B112" s="20"/>
-    </row>
-    <row r="113" spans="2:2" ht="14.4">
-      <c r="B113" s="21" t="s">
+    <row r="118" spans="2:2" ht="20.399999999999999">
+      <c r="B118" s="20"/>
+    </row>
+    <row r="119" spans="2:2" ht="14.4">
+      <c r="B119" s="21" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="19" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="19" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="19" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="19" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="19" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="19" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="19" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="19" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="129" spans="2:4">
-      <c r="B129" s="19" t="s">
+    <row r="135" spans="2:2">
+      <c r="B135" s="19" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="130" spans="2:4">
-      <c r="B130" s="19" t="s">
+    <row r="136" spans="2:2">
+      <c r="B136" s="19" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="131" spans="2:4">
-      <c r="B131" s="19" t="s">
+    <row r="137" spans="2:2">
+      <c r="B137" s="19" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="132" spans="2:4">
-      <c r="B132" s="19" t="s">
+    <row r="138" spans="2:2">
+      <c r="B138" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="2:4">
-      <c r="B133" s="19" t="s">
+    <row r="139" spans="2:2">
+      <c r="B139" s="19" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="134" spans="2:4">
-      <c r="B134" s="19" t="s">
+    <row r="140" spans="2:2">
+      <c r="B140" s="19" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="135" spans="2:4">
-      <c r="B135" s="19" t="s">
+    <row r="141" spans="2:2">
+      <c r="B141" s="19" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="136" spans="2:4">
-      <c r="B136" s="19" t="s">
+    <row r="142" spans="2:2">
+      <c r="B142" s="19" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="137" spans="2:4">
-      <c r="B137" s="19" t="s">
+    <row r="143" spans="2:2">
+      <c r="B143" s="19" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="138" spans="2:4">
-      <c r="B138" s="19" t="s">
+    <row r="144" spans="2:2">
+      <c r="B144" s="19" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="140" spans="2:4" s="18" customFormat="1">
-      <c r="B140" s="22" t="s">
+    <row r="146" spans="2:4" s="18" customFormat="1">
+      <c r="B146" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="D140" s="18" t="s">
+      <c r="D146" s="18" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3402,5 +3411,6 @@
     <hyperlink ref="B25" r:id="rId1" xr:uid="{E67F3334-AB95-4307-BA6B-2EDD58DCCD63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/500LinesEveryday/Revit二次开发笔记.xlsx
+++ b/500LinesEveryday/Revit二次开发笔记.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148253D1-4BA1-4BE0-A28F-775361BF6B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FAEA27-408F-4F6F-A7E0-6D9CAEB3A85E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6768" yWindow="456" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12624" yWindow="780" windowWidth="11400" windowHeight="11904" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="知识点积累" sheetId="7" r:id="rId2"/>
     <sheet name="正则表达式" sheetId="2" r:id="rId3"/>
+    <sheet name="C#基础笔记" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="358">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -1407,12 +1408,1563 @@
     <t>ExclusionFilter : 自动排除元素的过滤器.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>链接这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namespace TLA.Infrastruction.Extensions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static string GetDescription(this Eunm en)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type type= en.GetType();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberInfo[] memInfo =type.GetMember(en.ToString());</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (memInfo  !=null &amp;&amp; memInfo.Length&gt;0);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object[] attrs = memInfo[0].GetCunstomAttributes(typeof(DescriptionAttrebute), false) ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(attrs != null &amp;&amp; attrs.length&gt;0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return((DescriptionAttribute)attrs[0].Description;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return en.ToString();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩展方法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>链接这里</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>扩展方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(Extension Methods) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>中引用的新特性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>最常见的是在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>LINQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>中的使用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>概念</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>扩展方法是一种特殊类型的静态方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>对于一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>如类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>包括封装类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>值类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>接口等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩展方法可以在不改变该类型源码的前提下</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为它的实例提供新的成员</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>因此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>若要为一个框架或者第三方库的某个类型增加辅助功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>通过扩展方法就可以轻易实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>二</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>如何定义</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>以下步骤</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>创建静态类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>在其中创建一个静态方法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>为这个静态方法添加至少一个参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>并在第一个参数前加上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>关键字</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>这个关键字告诉编译器当前方法是一个扩展方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>而这个方法将成为第一个参数所属类型的新成员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>示例</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>三</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>何时使用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>要为某个类型扩张功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>但没有其源码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>比如某个框架或第三方库中的一个类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>例如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>想要获取一个列表中的奇数项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>就可以为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>IList&lt;T&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>接口增加一个扩展方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>这里的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>IList&lt;T&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>接口本身是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.Net</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>框架中的接口</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static class IListExtensions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static Ienumerable&lt;T&gt; OddItem&lt;T&gt;(this Ienumerable&lt;T&gt; list)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(list == null)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throw new ArgumentNullException(nameof(list));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (int i =1; i&lt;list.Count(); i++)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( i % 2 ==0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yield return list.ElementAt(i)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即使可以访问原有类型的源码,也可以使用扩展方法添加辅助功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public interface Ilog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void log(string message , LogLevel logLevel);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static class ILogExtensions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩展方法,方便记录调试信心</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static void LogDebug(this Ilog logger,string message)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( true)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>判断日志配置中是否允许输入Debug类型的日志</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logger?.Log($"{message}",LogLevel.Debug);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重用代码, 是代码更为简洁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为扩展方法封装了一段完整的逻辑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记自动补全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行上、下移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强的滚动条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制为项目引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制代码路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在文件夹中打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改工程文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加参考线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标中键滚动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productivity Power Tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">goto </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标签</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[,] num = new int[m,n];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>维度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t> m (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秩是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t> n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（列）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类、接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口是方法的抽象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类也是一种复合数据类型；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括属性和方法；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口用于实现一个累的定义，包括属性、方法的定义，单没有具体的实现，也不能实例化接口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐式转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示转换（强制类型转换）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>是MySQL中存在的精准数据类型</t>
+  </si>
+  <si>
+    <t>Decimal则以字符串的形式保存精确的原始数值。</t>
+  </si>
+  <si>
+    <t>decimal.Parse</t>
+  </si>
+  <si>
+    <t>Math.Round(area,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将小数值，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按指定的尾数四舍五入</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装箱和拆箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐式和显式类型转换属于不同值类型之间的转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果要在值类型和引用类型（堆引用站直）之间转换，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要了解装箱和拆箱的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确切的说，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装箱和拆箱的过程，是值类型与Object类型之间的转换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装箱：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把值类型转换为Object类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拆箱相反：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把Object类型转换为值类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>+RePlace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（）方法，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将目标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的指定字符换替换为新的。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的值类型都有一个内置的ToString（）方法，可以把所有的值类型转换为字符串（string）类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供了两个类型检查的运算符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> is as</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运算符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在转换过程中类型兼容性的检查。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运算符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用来做类型转换前的兼容性检查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赋值运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系罗技运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1534,6 +3086,96 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Source Code Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1568,7 +3210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1610,6 +3252,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1961,8 +3613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2135,7 +3787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
   <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
@@ -3413,4 +5065,682 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
+  <dimension ref="A1:H146"/>
+  <sheetViews>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="F144" sqref="F144"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="23" customFormat="1"/>
+    <row r="2" spans="1:8" ht="18">
+      <c r="B2" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="24" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="24">
+        <v>1</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="24">
+        <v>2</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="24">
+        <v>3</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="C21" s="24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="C22" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="D23" s="24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="D24" s="24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="D25" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="D26" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="E27" s="24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="E28" s="24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="E29" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="F30" s="24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="E31" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="D32" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="D33" s="24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="C34" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="B35" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="24">
+        <v>1</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" s="24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" s="28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="C42" s="24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="C43" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="D44" s="24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="D45" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="E46" s="24" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="E47" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="F48" s="24" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="E49" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="E50" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="E51" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="F52" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="F53" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="F54" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="F55" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="E56" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="D57" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="C58" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15">
+      <c r="A60" s="24">
+        <v>2</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="B61" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="B62" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="C63" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="B64" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="B65" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15">
+      <c r="C67" s="24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="C68" s="24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15">
+      <c r="C69" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="C70" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="D71" s="24" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="C72" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15">
+      <c r="A73" s="24">
+        <v>3</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15">
+      <c r="B74" s="29" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="23" customFormat="1"/>
+    <row r="78" spans="1:5" ht="18">
+      <c r="B78" s="25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="B79" t="s">
+        <v>305</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15">
+      <c r="B80" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="15">
+      <c r="C81" s="29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="15">
+      <c r="C82" s="29" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="15">
+      <c r="C83" s="29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" ht="15">
+      <c r="C84" s="29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="15">
+      <c r="C85" s="29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="15">
+      <c r="C86" s="29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="15">
+      <c r="C87" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="15">
+      <c r="C88" s="29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="15">
+      <c r="C89" s="29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="15">
+      <c r="C90" s="29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="15">
+      <c r="C91" s="29" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" s="23" customFormat="1"/>
+    <row r="94" spans="2:3" ht="15">
+      <c r="C94" s="24" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="15">
+      <c r="B95" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="C95" s="29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" s="23" customFormat="1"/>
+    <row r="98" spans="2:3" ht="18">
+      <c r="B98" s="25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="15">
+      <c r="C99" s="24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="15">
+      <c r="C100" s="24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="C101" s="24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" s="23" customFormat="1"/>
+    <row r="104" spans="2:3" ht="18">
+      <c r="B104" s="25" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" ht="15">
+      <c r="B105" s="29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" ht="15">
+      <c r="B106" s="29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="15">
+      <c r="B107" s="29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" ht="15">
+      <c r="B109" s="29" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" s="23" customFormat="1"/>
+    <row r="112" spans="2:3" ht="18">
+      <c r="B112" s="25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" ht="15">
+      <c r="B113" s="29" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" ht="15">
+      <c r="B114" s="29" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="D116" s="30" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" s="24" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" ht="15">
+      <c r="B118" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="E118" s="31" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" s="23" customFormat="1"/>
+    <row r="121" spans="2:5" ht="18">
+      <c r="B121" s="25" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" ht="15">
+      <c r="B122" s="29" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" ht="15">
+      <c r="B123" s="29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" ht="15">
+      <c r="B124" s="29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" ht="15">
+      <c r="B125" s="31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" ht="15">
+      <c r="B126" s="31" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" ht="15">
+      <c r="B127" s="31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" ht="15">
+      <c r="B129" s="24" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" ht="15">
+      <c r="B130" s="29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" s="23" customFormat="1"/>
+    <row r="133" spans="2:2" ht="18">
+      <c r="B133" s="32" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" ht="15">
+      <c r="B135" s="24" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" ht="15">
+      <c r="B136" s="24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" ht="15">
+      <c r="B137" s="24" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" s="23" customFormat="1"/>
+    <row r="140" spans="2:2" ht="18">
+      <c r="B140" s="32" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" ht="18">
+      <c r="B141" s="32"/>
+    </row>
+    <row r="142" spans="2:2" ht="15">
+      <c r="B142" s="29" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" ht="15">
+      <c r="B144" s="29" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" ht="15">
+      <c r="B146" s="29" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{340CCFD2-0E14-48E2-88D3-1D550CA65E69}"/>
+    <hyperlink ref="D79" r:id="rId2" xr:uid="{661EC16D-F618-4203-B0A9-E3AB380FE4C4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId3"/>
+</worksheet>
 </file>
--- a/500LinesEveryday/Revit二次开发笔记.xlsx
+++ b/500LinesEveryday/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FAEA27-408F-4F6F-A7E0-6D9CAEB3A85E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8546DC22-57C6-4CB6-A677-96B243C41249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12624" yWindow="780" windowWidth="11400" windowHeight="11904" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11040" yWindow="936" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="372">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -1353,6 +1353,1578 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">1 获取墙柱的面的面积
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已改.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExclusionFilter : 自动排除元素的过滤器.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namespace TLA.Infrastruction.Extensions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static string GetDescription(this Eunm en)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type type= en.GetType();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberInfo[] memInfo =type.GetMember(en.ToString());</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (memInfo  !=null &amp;&amp; memInfo.Length&gt;0);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object[] attrs = memInfo[0].GetCunstomAttributes(typeof(DescriptionAttrebute), false) ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(attrs != null &amp;&amp; attrs.length&gt;0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return((DescriptionAttribute)attrs[0].Description;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return en.ToString();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩展方法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>链接这里</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>扩展方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(Extension Methods) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>中引用的新特性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>最常见的是在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>LINQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>中的使用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>概念</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>扩展方法是一种特殊类型的静态方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>对于一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>如类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>包括封装类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>值类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>接口等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩展方法可以在不改变该类型源码的前提下</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为它的实例提供新的成员</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>因此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>若要为一个框架或者第三方库的某个类型增加辅助功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>通过扩展方法就可以轻易实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>二</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>如何定义</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>以下步骤</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>创建静态类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>在其中创建一个静态方法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>为这个静态方法添加至少一个参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>并在第一个参数前加上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>关键字</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>这个关键字告诉编译器当前方法是一个扩展方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>而这个方法将成为第一个参数所属类型的新成员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>示例</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>三</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>何时使用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>要为某个类型扩张功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>但没有其源码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>比如某个框架或第三方库中的一个类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>例如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>想要获取一个列表中的奇数项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>就可以为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>IList&lt;T&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>接口增加一个扩展方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>这里的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>IList&lt;T&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>接口本身是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>.Net</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>框架中的接口</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static class IListExtensions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static Ienumerable&lt;T&gt; OddItem&lt;T&gt;(this Ienumerable&lt;T&gt; list)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(list == null)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throw new ArgumentNullException(nameof(list));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (int i =1; i&lt;list.Count(); i++)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( i % 2 ==0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yield return list.ElementAt(i)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即使可以访问原有类型的源码,也可以使用扩展方法添加辅助功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public interface Ilog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void log(string message , LogLevel logLevel);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static class ILogExtensions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩展方法,方便记录调试信心</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static void LogDebug(this Ilog logger,string message)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( true)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>判断日志配置中是否允许输入Debug类型的日志</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logger?.Log($"{message}",LogLevel.Debug);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重用代码, 是代码更为简洁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为扩展方法封装了一段完整的逻辑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记自动补全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行上、下移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强的滚动条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制为项目引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制代码路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在文件夹中打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改工程文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加参考线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标中键滚动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productivity Power Tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">goto </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标签</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[,] num = new int[m,n];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>维度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t> m (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秩是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t> n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（列）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类、接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口是方法的抽象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类也是一种复合数据类型；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括属性和方法；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口用于实现一个累的定义，包括属性、方法的定义，单没有具体的实现，也不能实例化接口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐式转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示转换（强制类型转换）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>是MySQL中存在的精准数据类型</t>
+  </si>
+  <si>
+    <t>Decimal则以字符串的形式保存精确的原始数值。</t>
+  </si>
+  <si>
+    <t>decimal.Parse</t>
+  </si>
+  <si>
+    <t>Math.Round(area,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将小数值，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按指定的尾数四舍五入</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装箱和拆箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐式和显式类型转换属于不同值类型之间的转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果要在值类型和引用类型（堆引用站直）之间转换，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要了解装箱和拆箱的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确切的说，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装箱和拆箱的过程，是值类型与Object类型之间的转换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装箱：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把值类型转换为Object类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拆箱相反：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把Object类型转换为值类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>+RePlace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（）方法，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将目标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的指定字符换替换为新的。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的值类型都有一个内置的ToString（）方法，可以把所有的值类型转换为字符串（string）类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供了两个类型检查的运算符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> is as</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运算符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在转换过程中类型兼容性的检查。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运算符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用来做类型转换前的兼容性检查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赋值运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系罗技运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lookup 在熟悉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统工程，量变到质变。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1369,1594 +2941,59 @@
         <rFont val="XinGothic-SinaWeibo"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>暂时够用了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="XinGothic-SinaWeibo"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyTestClass.GetNameFromElement()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 获取墙柱的面的面积
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已改.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExclusionFilter : 自动排除元素的过滤器.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接这里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>namespace TLA.Infrastruction.Extensions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>public static string GetDescription(this Eunm en)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type type= en.GetType();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberInfo[] memInfo =type.GetMember(en.ToString());</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (memInfo  !=null &amp;&amp; memInfo.Length&gt;0);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>object[] attrs = memInfo[0].GetCunstomAttributes(typeof(DescriptionAttrebute), false) ;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(attrs != null &amp;&amp; attrs.length&gt;0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return((DescriptionAttribute)attrs[0].Description;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return en.ToString();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扩展方法</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>链接这里</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>扩展方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(Extension Methods) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>C#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>中引用的新特性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>最常见的是在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>LINQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>中的使用</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>一</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>概念</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>扩展方法是一种特殊类型的静态方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>对于一个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>C#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>如类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>包括封装类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>值类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>接口等</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扩展方法可以在不改变该类型源码的前提下</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为它的实例提供新的成员</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>因此</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>若要为一个框架或者第三方库的某个类型增加辅助功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>通过扩展方法就可以轻易实现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>二</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>如何定义</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>以下步骤</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>创建静态类</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>在其中创建一个静态方法</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>为这个静态方法添加至少一个参数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>并在第一个参数前加上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>关键字</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>这个关键字告诉编译器当前方法是一个扩展方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>而这个方法将成为第一个参数所属类型的新成员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>示例</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>三</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>何时使用</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>要为某个类型扩张功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>但没有其源码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>比如某个框架或第三方库中的一个类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>例如</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>想要获取一个列表中的奇数项</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>就可以为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>IList&lt;T&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>接口增加一个扩展方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>这里的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>IList&lt;T&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>接口本身是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>.Net</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>框架中的接口</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>public static class IListExtensions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>public static Ienumerable&lt;T&gt; OddItem&lt;T&gt;(this Ienumerable&lt;T&gt; list)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(list == null)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>throw new ArgumentNullException(nameof(list));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>for (int i =1; i&lt;list.Count(); i++)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if( i % 2 ==0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yield return list.ElementAt(i)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即使可以访问原有类型的源码,也可以使用扩展方法添加辅助功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>public interface Ilog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void log(string message , LogLevel logLevel);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>public static class ILogExtensions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扩展方法,方便记录调试信心</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>public static void LogDebug(this Ilog logger,string message)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if( true)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>判断日志配置中是否允许输入Debug类型的日志</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logger?.Log($"{message}",LogLevel.Debug);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重用代码, 是代码更为简洁。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为扩展方法封装了一段完整的逻辑。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标记自动补全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行上、下移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增强的滚动条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制为项目引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制代码路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在文件夹中打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改工程文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加参考线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼠标中键滚动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productivity Power Tools</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">goto </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标签</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[,] num = new int[m,n];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>维度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t> m (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秩是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t> n </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（列）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类、接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口是方法的抽象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类也是一种复合数据类型；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括属性和方法；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口用于实现一个累的定义，包括属性、方法的定义，单没有具体的实现，也不能实例化接口。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型转换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐式转换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示转换（强制类型转换）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>是MySQL中存在的精准数据类型</t>
-  </si>
-  <si>
-    <t>Decimal则以字符串的形式保存精确的原始数值。</t>
-  </si>
-  <si>
-    <t>decimal.Parse</t>
-  </si>
-  <si>
-    <t>Math.Round(area,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将小数值，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>按指定的尾数四舍五入</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装箱和拆箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐式和显式类型转换属于不同值类型之间的转换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果要在值类型和引用类型（堆引用站直）之间转换，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要了解装箱和拆箱的操作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确切的说，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>装箱和拆箱的过程，是值类型与Object类型之间的转换</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>装箱：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>把值类型转换为Object类型</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拆箱相反：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>把Object类型转换为值类型</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>+RePlace</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（）方法，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将目标</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中的指定字符换替换为新的。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的值类型都有一个内置的ToString（）方法，可以把所有的值类型转换为字符串（string）类型。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提供了两个类型检查的运算符</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> is as</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>as</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运算符</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在转换过程中类型兼容性的检查。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>is</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运算符</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用来做类型转换前的兼容性检查</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>返回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>bool</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>值。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运算符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算术运算符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赋值运算符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系罗技运算符</t>
+      <t>,MyTestClass.GetNameFromElement()</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级类，需要了解revit的继承关系，同时学lookup和api手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢速过滤器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ElementLevelFilter</t>
+  </si>
+  <si>
+    <t>ElementParameterFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FamilyInstanceFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑过滤器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revit中项目基点、测量点的意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接在这</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标是曲别针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目基点：项目在用户坐标系中测量定位的相对参考坐标原点，需要根据项目特点确定此点的合理位置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标是圈x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量点：项目在世界坐标系中实际测量定位的参考坐标原点，一般可以理解为项目在城市坐标系统中的位置。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3611,10 +3648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3659,7 +3696,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -3734,7 +3771,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3771,6 +3808,22 @@
       </c>
       <c r="F11" s="1" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -3785,10 +3838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
-  <dimension ref="A1:J146"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4577,7 +4630,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="B109" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="2:2" s="18" customFormat="1"/>
@@ -4719,12 +4772,82 @@
         <v>243</v>
       </c>
     </row>
-    <row r="146" spans="2:4" s="18" customFormat="1">
-      <c r="B146" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D146" s="18" t="s">
-        <v>247</v>
+    <row r="145" spans="1:6">
+      <c r="B145" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="F145" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" s="18" customFormat="1"/>
+    <row r="150" spans="1:6">
+      <c r="B150" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>2</v>
+      </c>
+      <c r="B154" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>3</v>
+      </c>
+      <c r="B156" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="B158" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" s="18" customFormat="1"/>
+    <row r="161" spans="2:5">
+      <c r="B161" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" t="s">
+        <v>366</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" t="s">
+        <v>371</v>
+      </c>
+      <c r="E164" s="8"/>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="B165" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5">
+      <c r="B167" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -4732,9 +4855,10 @@
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1" xr:uid="{6261FA76-B032-41CA-A069-6D79FA838B23}"/>
     <hyperlink ref="D98" r:id="rId2" xr:uid="{B4853553-3272-45BD-92E4-472547102DDF}"/>
+    <hyperlink ref="E163" r:id="rId3" xr:uid="{41D214AC-9138-4B79-BC6D-B94C3AB1461D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5083,38 +5207,38 @@
     <row r="1" spans="1:8" s="23" customFormat="1"/>
     <row r="2" spans="1:8" ht="18">
       <c r="B2" s="25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="B6" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -5125,20 +5249,20 @@
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5146,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5154,7 +5278,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5162,113 +5286,113 @@
         <v>3</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="C21" s="24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="C22" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="D23" s="24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="D24" s="24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="D25" s="24" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="D26" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="E27" s="24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="E28" s="24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="E29" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="F30" s="24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="E31" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="D32" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="D33" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="C34" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5276,107 +5400,107 @@
         <v>1</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="B40" s="28" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="B41" s="28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="C42" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="C43" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="D44" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="D45" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="E46" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="E47" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="F48" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="E49" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="E50" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="E51" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="F52" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="F53" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="F54" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="F55" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="E56" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="D57" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="C58" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15">
@@ -5384,70 +5508,70 @@
         <v>2</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="B61" s="24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="B62" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="C63" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="B64" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="B65" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="B66" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15">
       <c r="C67" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="C68" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15">
       <c r="C69" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="C70" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="D71" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="C72" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15">
@@ -5455,265 +5579,265 @@
         <v>3</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15">
       <c r="B74" s="29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="23" customFormat="1"/>
     <row r="78" spans="1:5" ht="18">
       <c r="B78" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="B79" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15">
       <c r="B80" s="29" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="15">
       <c r="C81" s="29" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="15">
       <c r="C82" s="29" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="15">
       <c r="C83" s="29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="15">
       <c r="C84" s="29" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="15">
       <c r="C85" s="29" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="15">
       <c r="C86" s="29" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="15">
       <c r="C87" s="29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="15">
       <c r="C88" s="29" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="15">
       <c r="C89" s="29" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="15">
       <c r="C90" s="29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="15">
       <c r="C91" s="29" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" spans="2:3" s="23" customFormat="1"/>
     <row r="94" spans="2:3" ht="15">
       <c r="C94" s="24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="15">
       <c r="B95" s="29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="97" spans="2:3" s="23" customFormat="1"/>
     <row r="98" spans="2:3" ht="18">
       <c r="B98" s="25" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="15">
       <c r="C99" s="24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" spans="2:3" ht="15">
       <c r="C100" s="24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="C101" s="24" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="103" spans="2:3" s="23" customFormat="1"/>
     <row r="104" spans="2:3" ht="18">
       <c r="B104" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="15">
       <c r="B105" s="29" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="15">
       <c r="B106" s="29" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="15">
       <c r="B107" s="29" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="15">
       <c r="B109" s="29" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="111" spans="2:3" s="23" customFormat="1"/>
     <row r="112" spans="2:3" ht="18">
       <c r="B112" s="25" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="113" spans="2:5" ht="15">
       <c r="B113" s="29" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="114" spans="2:5" ht="15">
       <c r="B114" s="29" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="115" spans="2:5">
       <c r="B115" s="24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="116" spans="2:5">
       <c r="D116" s="30" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="117" spans="2:5">
       <c r="B117" s="24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="118" spans="2:5" ht="15">
       <c r="B118" s="24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="120" spans="2:5" s="23" customFormat="1"/>
     <row r="121" spans="2:5" ht="18">
       <c r="B121" s="25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" spans="2:5" ht="15">
       <c r="B122" s="29" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="123" spans="2:5" ht="15">
       <c r="B123" s="29" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="124" spans="2:5" ht="15">
       <c r="B124" s="29" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="125" spans="2:5" ht="15">
       <c r="B125" s="31" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="126" spans="2:5" ht="15">
       <c r="B126" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="2:5" ht="15">
       <c r="B127" s="31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="129" spans="2:2" ht="15">
       <c r="B129" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="130" spans="2:2" ht="15">
       <c r="B130" s="29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="132" spans="2:2" s="23" customFormat="1"/>
     <row r="133" spans="2:2" ht="18">
       <c r="B133" s="32" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="135" spans="2:2" ht="15">
       <c r="B135" s="24" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="136" spans="2:2" ht="15">
       <c r="B136" s="24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="137" spans="2:2" ht="15">
       <c r="B137" s="24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="139" spans="2:2" s="23" customFormat="1"/>
     <row r="140" spans="2:2" ht="18">
       <c r="B140" s="32" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="141" spans="2:2" ht="18">
@@ -5721,17 +5845,17 @@
     </row>
     <row r="142" spans="2:2" ht="15">
       <c r="B142" s="29" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="144" spans="2:2" ht="15">
       <c r="B144" s="29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="146" spans="2:2" ht="15">
       <c r="B146" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/500LinesEveryday/Revit二次开发笔记.xlsx
+++ b/500LinesEveryday/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8546DC22-57C6-4CB6-A677-96B243C41249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738124E5-5B43-467B-9A14-27D090424E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="936" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8304" yWindow="780" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="421">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -2548,6 +2548,9 @@
   </si>
   <si>
     <r>
+      <t>string</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -2555,7 +2558,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>装箱：</t>
+      <t>类型的</t>
     </r>
     <r>
       <rPr>
@@ -2564,6 +2567,25 @@
         <rFont val="Source Code Pro"/>
         <family val="3"/>
       </rPr>
+      <t>+RePlace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（）方法，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -2574,11 +2596,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>把值类型转换为Object类型</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>将目标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2587,7 +2615,31 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>拆箱相反：</t>
+      <t>中的指定字符换替换为新的。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的值类型都有一个内置的ToString（）方法，可以把所有的值类型转换为字符串（string）类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供了两个类型检查的运算符</t>
     </r>
     <r>
       <rPr>
@@ -2606,13 +2658,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>把Object类型转换为值类型</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>string</t>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> is as</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>as</t>
     </r>
     <r>
       <rPr>
@@ -2622,7 +2683,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>类型的</t>
+      <t>运算符</t>
     </r>
     <r>
       <rPr>
@@ -2631,7 +2692,7 @@
         <rFont val="Source Code Pro"/>
         <family val="3"/>
       </rPr>
-      <t>+RePlace</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2641,7 +2702,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（）方法，</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -2660,7 +2721,23 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>将目标</t>
+      <t>在转换过程中类型兼容性的检查。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运算符</t>
     </r>
     <r>
       <rPr>
@@ -2669,7 +2746,7 @@
         <rFont val="Source Code Pro"/>
         <family val="3"/>
       </rPr>
-      <t>string</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2679,21 +2756,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>中的指定字符换替换为新的。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的值类型都有一个内置的ToString（）方法，可以把所有的值类型转换为字符串（string）类型。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C#</t>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2703,7 +2775,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>提供了两个类型检查的运算符</t>
+      <t>用来做类型转换前的兼容性检查</t>
     </r>
     <r>
       <rPr>
@@ -2722,7 +2794,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：</t>
+      <t>；</t>
     </r>
     <r>
       <rPr>
@@ -2731,13 +2803,7 @@
         <rFont val="Source Code Pro"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> is as</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>as</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2747,7 +2813,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>运算符</t>
+      <t>返回</t>
     </r>
     <r>
       <rPr>
@@ -2756,7 +2822,7 @@
         <rFont val="Source Code Pro"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>bool</t>
     </r>
     <r>
       <rPr>
@@ -2766,136 +2832,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在转换过程中类型兼容性的检查。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>is</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运算符</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用来做类型转换前的兼容性检查</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>返回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Source Code Pro"/>
-        <family val="3"/>
-      </rPr>
-      <t>bool</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>值。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2910,10 +2846,6 @@
   </si>
   <si>
     <t>赋值运算符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系罗技运算符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2994,6 +2926,622 @@
   </si>
   <si>
     <t>测量点：项目在世界坐标系中实际测量定位的参考坐标原点，一般可以理解为项目在城市坐标系统中的位置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系逻辑运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装箱：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把值类型转换为Object类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拆箱相反：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把Object类型转换为值类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赋值运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都为ture时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a为true或者b为true时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a &amp;&amp; b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a || b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int intA = 0;</t>
+  </si>
+  <si>
+    <r>
+      <t>1.intA =int.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(str);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.int.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TryParse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(str, out intA);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.intA = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Convert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.ToInt32(str);</t>
+    </r>
+  </si>
+  <si>
+    <t>以上都可以，其中 1和3 需要try｛｝异常，2不需要。</t>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转为int</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> new Class();</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个类的实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> typeof(int);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取数据类型说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Obj.Method()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取对象的方法或属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（exp1）?(exp2) :(exp3);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若exp1， 则exp2； 否则exp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运算符的优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new typeof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>括号里的优先，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后优先级高的运算，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同优先级的从左到右</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|| &amp;&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>| ^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Console.WriteLine(true ^ false);  // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> true</t>
+    </r>
+  </si>
+  <si>
+    <t>^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异或</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Console.WriteLine(false ^ false);  // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> false</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当且仅当其一个操作数为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> true </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，结果才为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Console.WriteLine(true ^ true);  // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> false</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“+ -”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> %</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt; &gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"++ --"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正负号运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">“== </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>！= &lt;&gt; ”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“&lt;  &lt;= &gt; &gt;=”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert.To….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool.Parse()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3001,7 +3549,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3213,6 +3761,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3229,7 +3800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3247,7 +3818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3281,15 +3852,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -3299,6 +3867,18 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3815,7 +4395,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3823,7 +4403,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3838,10 +4418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BA97E-15D4-4A00-A681-A6845A53401D}">
-  <dimension ref="A1:J167"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E157" sqref="E157"/>
+    <sheetView topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3850,8 +4430,22 @@
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="15" customFormat="1"/>
-    <row r="2" spans="1:10" ht="17.399999999999999">
+    <row r="1" spans="1:13" s="33" customFormat="1">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+    </row>
+    <row r="2" spans="1:13" ht="17.399999999999999">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3867,7 +4461,7 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:10" ht="17.399999999999999">
+    <row r="3" spans="1:13" ht="17.399999999999999">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>89</v>
@@ -3881,7 +4475,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1.1000000000000001</v>
       </c>
@@ -3889,7 +4483,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1.2</v>
       </c>
@@ -3897,7 +4491,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1.3</v>
       </c>
@@ -3905,7 +4499,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>1.4</v>
       </c>
@@ -3913,7 +4507,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1.5</v>
       </c>
@@ -3921,25 +4515,25 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:13">
       <c r="B9" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:13">
       <c r="B10" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:13">
       <c r="B11" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:13">
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="17.399999999999999">
+    <row r="13" spans="1:13" ht="17.399999999999999">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -3955,7 +4549,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="17.399999999999999">
+    <row r="14" spans="1:13" ht="17.399999999999999">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>94</v>
@@ -3969,7 +4563,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>2.1</v>
       </c>
@@ -3977,7 +4571,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>2.2000000000000002</v>
       </c>
@@ -3985,7 +4579,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>2.2999999999999998</v>
       </c>
@@ -3993,7 +4587,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>2.4</v>
       </c>
@@ -4001,7 +4595,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -4009,28 +4603,42 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:13">
       <c r="B22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:13">
       <c r="B23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:13">
       <c r="B24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:13">
       <c r="B25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="15" customFormat="1"/>
-    <row r="27" spans="1:5" ht="17.399999999999999">
+    <row r="26" spans="1:13" s="33" customFormat="1">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="27" spans="1:13" ht="17.399999999999999">
       <c r="A27" s="10">
         <v>1</v>
       </c>
@@ -4041,7 +4649,7 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>1.1000000000000001</v>
       </c>
@@ -4049,12 +4657,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:13">
       <c r="B29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>1.2</v>
       </c>
@@ -4062,12 +4670,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:13">
       <c r="B31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>1.3</v>
       </c>
@@ -4075,13 +4683,27 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:13">
       <c r="B33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="15" customFormat="1"/>
-    <row r="36" spans="1:10" ht="17.399999999999999">
+    <row r="35" spans="1:13" s="33" customFormat="1">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+    </row>
+    <row r="36" spans="1:13" ht="17.399999999999999">
       <c r="A36" s="10">
         <v>1</v>
       </c>
@@ -4096,7 +4718,7 @@
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:10" ht="17.399999999999999">
+    <row r="37" spans="1:13" ht="17.399999999999999">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>204</v>
@@ -4109,46 +4731,64 @@
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:13">
       <c r="B38" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:13">
       <c r="B39" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:13">
       <c r="B40" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="18" customFormat="1">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17" t="s">
+    <row r="41" spans="1:13" s="33" customFormat="1">
+      <c r="B41" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-    </row>
-    <row r="42" spans="1:10" s="18" customFormat="1">
-      <c r="B42" s="17" t="s">
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="1:13" s="33" customFormat="1">
+      <c r="B42" s="15" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" s="18" customFormat="1">
-      <c r="B43" s="17" t="s">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:13" s="33" customFormat="1">
+      <c r="B43" s="15" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" s="15" customFormat="1"/>
-    <row r="45" spans="1:10" ht="17.399999999999999">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:13" s="33" customFormat="1">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+    </row>
+    <row r="45" spans="1:13" ht="17.399999999999999">
       <c r="A45" s="11">
         <v>1</v>
       </c>
@@ -4164,7 +4804,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:13">
       <c r="A46" s="12">
         <v>1.1000000000000001</v>
       </c>
@@ -4172,13 +4812,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:13">
       <c r="A47" s="12"/>
       <c r="B47" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:13">
       <c r="A48" s="12" t="s">
         <v>123</v>
       </c>
@@ -4606,7 +5246,7 @@
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="16" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4633,221 +5273,263 @@
         <v>248</v>
       </c>
     </row>
-    <row r="116" spans="2:2" s="18" customFormat="1"/>
-    <row r="117" spans="2:2" ht="21">
-      <c r="B117" s="20" t="s">
+    <row r="116" spans="1:13" s="33" customFormat="1">
+      <c r="A116" s="34"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="34"/>
+      <c r="J116" s="34"/>
+      <c r="K116" s="34"/>
+      <c r="L116" s="34"/>
+      <c r="M116" s="34"/>
+    </row>
+    <row r="117" spans="1:13" ht="21">
+      <c r="B117" s="18" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="118" spans="2:2" ht="20.399999999999999">
-      <c r="B118" s="20"/>
-    </row>
-    <row r="119" spans="2:2" ht="14.4">
-      <c r="B119" s="21" t="s">
+    <row r="118" spans="1:13" ht="20.399999999999999">
+      <c r="B118" s="18"/>
+    </row>
+    <row r="119" spans="1:13" ht="14.4">
+      <c r="B119" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="19" t="s">
+    <row r="120" spans="1:13">
+      <c r="B120" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="19" t="s">
+    <row r="121" spans="1:13">
+      <c r="B121" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="19" t="s">
+    <row r="122" spans="1:13">
+      <c r="B122" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="19" t="s">
+    <row r="123" spans="1:13">
+      <c r="B123" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="19" t="s">
+    <row r="124" spans="1:13">
+      <c r="B124" s="17" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="19" t="s">
+    <row r="125" spans="1:13">
+      <c r="B125" s="17" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="19" t="s">
+    <row r="126" spans="1:13">
+      <c r="B126" s="17" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="19" t="s">
+    <row r="127" spans="1:13">
+      <c r="B127" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="19" t="s">
+    <row r="128" spans="1:13">
+      <c r="B128" s="17" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="19" t="s">
+      <c r="B129" s="17" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="19" t="s">
+      <c r="B130" s="17" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="19" t="s">
+      <c r="B131" s="17" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="19" t="s">
+      <c r="B132" s="17" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="19" t="s">
+      <c r="B133" s="17" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="19" t="s">
+      <c r="B134" s="17" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="19" t="s">
+      <c r="B135" s="17" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="19" t="s">
+      <c r="B136" s="17" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="19" t="s">
+      <c r="B137" s="17" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="19" t="s">
+      <c r="B138" s="17" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="19" t="s">
+      <c r="B139" s="17" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="19" t="s">
+      <c r="B140" s="17" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="19" t="s">
+      <c r="B141" s="17" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="142" spans="2:2">
-      <c r="B142" s="19" t="s">
+      <c r="B142" s="17" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="19" t="s">
+      <c r="B143" s="17" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="19" t="s">
+      <c r="B144" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
-      <c r="B145" s="22" t="s">
-        <v>358</v>
+    <row r="145" spans="1:13">
+      <c r="B145" s="20" t="s">
+        <v>355</v>
       </c>
       <c r="F145" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" s="18" customFormat="1"/>
-    <row r="150" spans="1:6">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" s="33" customFormat="1">
+      <c r="A148" s="34"/>
+      <c r="B148" s="34"/>
+      <c r="C148" s="34"/>
+      <c r="D148" s="34"/>
+      <c r="E148" s="34"/>
+      <c r="F148" s="34"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="34"/>
+      <c r="I148" s="34"/>
+      <c r="J148" s="34"/>
+      <c r="K148" s="34"/>
+      <c r="L148" s="34"/>
+      <c r="M148" s="34"/>
+    </row>
+    <row r="150" spans="1:13">
       <c r="B150" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152">
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154">
         <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156">
         <v>3</v>
       </c>
       <c r="B156" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="B158" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" s="18" customFormat="1"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" s="33" customFormat="1">
+      <c r="A160" s="34"/>
+      <c r="B160" s="34"/>
+      <c r="C160" s="34"/>
+      <c r="D160" s="34"/>
+      <c r="E160" s="34"/>
+      <c r="F160" s="34"/>
+      <c r="G160" s="34"/>
+      <c r="H160" s="34"/>
+      <c r="I160" s="34"/>
+      <c r="J160" s="34"/>
+      <c r="K160" s="34"/>
+      <c r="L160" s="34"/>
+      <c r="M160" s="34"/>
+    </row>
     <row r="161" spans="2:5">
       <c r="B161" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="163" spans="2:5">
       <c r="B163" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="164" spans="2:5">
       <c r="B164" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E164" s="8"/>
     </row>
     <row r="165" spans="2:5">
       <c r="B165" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="166" spans="2:5">
       <c r="B166" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="167" spans="2:5">
       <c r="B167" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -5193,407 +5875,430 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:J184"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="24"/>
+    <col min="1" max="1" width="8.88671875" style="36"/>
+    <col min="2" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="23" customFormat="1"/>
-    <row r="2" spans="1:8" ht="18">
-      <c r="B2" s="25" t="s">
+    <row r="1" spans="1:10" s="32" customFormat="1">
+      <c r="A1" s="35"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" spans="1:10" ht="18">
+      <c r="B2" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="23" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="1:10">
+      <c r="B3" s="21" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="24" t="s">
+    <row r="6" spans="1:10">
+      <c r="B6" s="21" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="24" t="s">
+    <row r="7" spans="1:10">
+      <c r="B7" s="21" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="27" t="s">
+    <row r="8" spans="1:10">
+      <c r="B8" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="24" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="21" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="24" t="s">
+    <row r="12" spans="1:10">
+      <c r="B12" s="21" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="24">
+    <row r="13" spans="1:10">
+      <c r="A13" s="36">
         <v>1</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="21" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="24">
+    <row r="14" spans="1:10">
+      <c r="A14" s="36">
         <v>2</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="21" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="24">
+    <row r="15" spans="1:10">
+      <c r="A15" s="36">
         <v>3</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="21" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="24" t="s">
+    <row r="16" spans="1:10">
+      <c r="B16" s="21" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="21" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="21" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="21" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="21" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="21" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="21" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="21" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="21" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="21" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="21" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="21" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="21" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="21" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="21" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="21" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="21" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="21" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="21" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="21" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="24">
+      <c r="A38" s="36">
         <v>1</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="21" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="21" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="25" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="25" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="21" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="21" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="21" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="21" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="21" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="21" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="21" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="E49" s="24" t="s">
+      <c r="E49" s="21" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="21" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="21" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="F52" s="24" t="s">
+      <c r="F52" s="21" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="21" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="F54" s="24" t="s">
+      <c r="F54" s="21" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="21" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="21" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="21" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="21" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15">
-      <c r="A60" s="24">
+      <c r="A60" s="36">
         <v>2</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="26" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="21" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="21" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="21" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="21" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="B65" s="24" t="s">
+    <row r="65" spans="1:10">
+      <c r="B65" s="21" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="B66" s="24" t="s">
+    <row r="66" spans="1:10">
+      <c r="B66" s="21" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15">
-      <c r="C67" s="24" t="s">
+    <row r="67" spans="1:10" ht="15">
+      <c r="C67" s="21" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="C68" s="24" t="s">
+    <row r="68" spans="1:10">
+      <c r="C68" s="21" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15">
-      <c r="C69" s="24" t="s">
+    <row r="69" spans="1:10" ht="15">
+      <c r="C69" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="E69" s="24" t="s">
+      <c r="E69" s="21" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="C70" s="24" t="s">
+    <row r="70" spans="1:10">
+      <c r="C70" s="21" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="D71" s="24" t="s">
+    <row r="71" spans="1:10">
+      <c r="D71" s="21" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="C72" s="24" t="s">
+    <row r="72" spans="1:10">
+      <c r="C72" s="21" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15">
-      <c r="A73" s="24">
+    <row r="73" spans="1:10" ht="15">
+      <c r="A73" s="36">
         <v>3</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="26" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15">
-      <c r="B74" s="29" t="s">
+    <row r="74" spans="1:10" ht="15">
+      <c r="B74" s="26" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="23" customFormat="1"/>
-    <row r="78" spans="1:5" ht="18">
-      <c r="B78" s="25" t="s">
+    <row r="77" spans="1:10" s="32" customFormat="1">
+      <c r="A77" s="35"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+    </row>
+    <row r="78" spans="1:10" ht="18">
+      <c r="B78" s="22" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:10">
       <c r="B79" t="s">
         <v>303</v>
       </c>
@@ -5601,261 +6306,615 @@
         <v>249</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15">
-      <c r="B80" s="29" t="s">
+    <row r="80" spans="1:10" ht="15">
+      <c r="B80" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="26" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="15">
-      <c r="C81" s="29" t="s">
+    <row r="81" spans="1:10" ht="15">
+      <c r="C81" s="26" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="15">
-      <c r="C82" s="29" t="s">
+    <row r="82" spans="1:10" ht="15">
+      <c r="C82" s="26" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="15">
-      <c r="C83" s="29" t="s">
+    <row r="83" spans="1:10" ht="15">
+      <c r="C83" s="26" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="84" spans="2:3" ht="15">
-      <c r="C84" s="29" t="s">
+    <row r="84" spans="1:10" ht="15">
+      <c r="C84" s="26" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="85" spans="2:3" ht="15">
-      <c r="C85" s="29" t="s">
+    <row r="85" spans="1:10" ht="15">
+      <c r="C85" s="26" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="86" spans="2:3" ht="15">
-      <c r="C86" s="29" t="s">
+    <row r="86" spans="1:10" ht="15">
+      <c r="C86" s="26" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="15">
-      <c r="C87" s="29" t="s">
+    <row r="87" spans="1:10" ht="15">
+      <c r="C87" s="26" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="88" spans="2:3" ht="15">
-      <c r="C88" s="29" t="s">
+    <row r="88" spans="1:10" ht="15">
+      <c r="C88" s="26" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="15">
-      <c r="C89" s="29" t="s">
+    <row r="89" spans="1:10" ht="15">
+      <c r="C89" s="26" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="15">
-      <c r="C90" s="29" t="s">
+    <row r="90" spans="1:10" ht="15">
+      <c r="C90" s="26" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="91" spans="2:3" ht="15">
-      <c r="C91" s="29" t="s">
+    <row r="91" spans="1:10" ht="15">
+      <c r="C91" s="26" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="93" spans="2:3" s="23" customFormat="1"/>
-    <row r="94" spans="2:3" ht="15">
-      <c r="C94" s="24" t="s">
+    <row r="93" spans="1:10" s="32" customFormat="1">
+      <c r="A93" s="35"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="31"/>
+    </row>
+    <row r="94" spans="1:10" ht="15">
+      <c r="C94" s="21" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="15">
-      <c r="B95" s="29" t="s">
+    <row r="95" spans="1:10" ht="15">
+      <c r="B95" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="26" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="97" spans="2:3" s="23" customFormat="1"/>
-    <row r="98" spans="2:3" ht="18">
-      <c r="B98" s="25" t="s">
+    <row r="97" spans="1:10" s="32" customFormat="1">
+      <c r="A97" s="35"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="31"/>
+    </row>
+    <row r="98" spans="1:10" ht="18">
+      <c r="B98" s="22" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="99" spans="2:3" ht="15">
-      <c r="C99" s="24" t="s">
+    <row r="99" spans="1:10" ht="15">
+      <c r="C99" s="21" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="100" spans="2:3" ht="15">
-      <c r="C100" s="24" t="s">
+    <row r="100" spans="1:10" ht="15">
+      <c r="C100" s="21" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
-      <c r="C101" s="24" t="s">
+    <row r="101" spans="1:10">
+      <c r="C101" s="21" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="103" spans="2:3" s="23" customFormat="1"/>
-    <row r="104" spans="2:3" ht="18">
-      <c r="B104" s="25" t="s">
+    <row r="103" spans="1:10" s="32" customFormat="1">
+      <c r="A103" s="35"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="31"/>
+      <c r="J103" s="31"/>
+    </row>
+    <row r="104" spans="1:10" ht="18">
+      <c r="B104" s="22" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="105" spans="2:3" ht="15">
-      <c r="B105" s="29" t="s">
+    <row r="105" spans="1:10" ht="15">
+      <c r="B105" s="26" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="106" spans="2:3" ht="15">
-      <c r="B106" s="29" t="s">
+    <row r="106" spans="1:10" ht="15">
+      <c r="B106" s="26" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="107" spans="2:3" ht="15">
-      <c r="B107" s="29" t="s">
+    <row r="107" spans="1:10" ht="15">
+      <c r="B107" s="26" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="109" spans="2:3" ht="15">
-      <c r="B109" s="29" t="s">
+    <row r="109" spans="1:10" ht="15">
+      <c r="B109" s="26" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="2:3" s="23" customFormat="1"/>
-    <row r="112" spans="2:3" ht="18">
-      <c r="B112" s="25" t="s">
+    <row r="111" spans="1:10" s="32" customFormat="1">
+      <c r="A111" s="35"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="31"/>
+      <c r="J111" s="31"/>
+    </row>
+    <row r="112" spans="1:10" ht="18">
+      <c r="B112" s="22" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="113" spans="2:5" ht="15">
-      <c r="B113" s="29" t="s">
+      <c r="B113" s="26" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="114" spans="2:5" ht="15">
-      <c r="B114" s="29" t="s">
+      <c r="B114" s="26" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="115" spans="2:5">
-      <c r="B115" s="24" t="s">
+      <c r="B115" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="D115" s="30" t="s">
+      <c r="D115" s="27" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="116" spans="2:5">
-      <c r="D116" s="30" t="s">
+      <c r="D116" s="27" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="117" spans="2:5">
-      <c r="B117" s="24" t="s">
+      <c r="B117" s="21" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="118" spans="2:5" ht="15">
-      <c r="B118" s="24" t="s">
+      <c r="B118" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="E118" s="31" t="s">
+      <c r="E118" s="28" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="120" spans="2:5" s="23" customFormat="1"/>
-    <row r="121" spans="2:5" ht="18">
-      <c r="B121" s="25" t="s">
+    <row r="119" spans="2:5">
+      <c r="E119" s="28"/>
+    </row>
+    <row r="120" spans="2:5" ht="15">
+      <c r="B120" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="E120" s="28"/>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E121" s="28"/>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E122" s="28"/>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E123" s="28"/>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E124" s="28"/>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E125" s="28"/>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="E126" s="28"/>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="E127" s="28"/>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" s="21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="32" customFormat="1">
+      <c r="A130" s="35"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="31"/>
+      <c r="H130" s="31"/>
+      <c r="I130" s="31"/>
+      <c r="J130" s="31"/>
+    </row>
+    <row r="131" spans="1:10" ht="18">
+      <c r="B131" s="22" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="15">
-      <c r="B122" s="29" t="s">
+    <row r="132" spans="1:10" ht="15">
+      <c r="B132" s="26" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="123" spans="2:5" ht="15">
-      <c r="B123" s="29" t="s">
+    <row r="133" spans="1:10" ht="15">
+      <c r="B133" s="26" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="124" spans="2:5" ht="15">
-      <c r="B124" s="29" t="s">
+    <row r="134" spans="1:10" ht="15">
+      <c r="B134" s="26" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="125" spans="2:5" ht="15">
-      <c r="B125" s="31" t="s">
+    <row r="135" spans="1:10" ht="15">
+      <c r="B135" s="28" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="15">
-      <c r="B126" s="31" t="s">
+    <row r="136" spans="1:10" ht="15">
+      <c r="B136" s="30" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15">
+      <c r="B137" s="30" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15">
+      <c r="B139" s="21" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="127" spans="2:5" ht="15">
-      <c r="B127" s="31" t="s">
+    <row r="140" spans="1:10" ht="15">
+      <c r="B140" s="26" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="15">
-      <c r="B129" s="24" t="s">
+    <row r="142" spans="1:10" s="32" customFormat="1">
+      <c r="A142" s="35"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="31"/>
+      <c r="H142" s="31"/>
+      <c r="I142" s="31"/>
+      <c r="J142" s="31"/>
+    </row>
+    <row r="143" spans="1:10" ht="18">
+      <c r="B143" s="29" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="15">
-      <c r="B130" s="29" t="s">
+    <row r="145" spans="1:10" ht="15">
+      <c r="B145" s="21" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="132" spans="2:2" s="23" customFormat="1"/>
-    <row r="133" spans="2:2" ht="18">
-      <c r="B133" s="32" t="s">
+    <row r="146" spans="1:10" ht="15">
+      <c r="B146" s="21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="15">
+      <c r="B147" s="21" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="15">
-      <c r="B135" s="24" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" ht="15">
-      <c r="B136" s="24" t="s">
+    <row r="149" spans="1:10" s="32" customFormat="1">
+      <c r="A149" s="35"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="31"/>
+      <c r="G149" s="31"/>
+      <c r="H149" s="31"/>
+      <c r="I149" s="31"/>
+      <c r="J149" s="31"/>
+    </row>
+    <row r="150" spans="1:10" ht="18">
+      <c r="B150" s="29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="18">
+      <c r="B151" s="29"/>
+    </row>
+    <row r="152" spans="1:10" ht="15">
+      <c r="B152" s="26" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="137" spans="2:2" ht="15">
-      <c r="B137" s="24" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" s="23" customFormat="1"/>
-    <row r="140" spans="2:2" ht="18">
-      <c r="B140" s="32" t="s">
+    <row r="154" spans="1:10" ht="15">
+      <c r="B154" s="26" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="141" spans="2:2" ht="18">
-      <c r="B141" s="32"/>
-    </row>
-    <row r="142" spans="2:2" ht="15">
-      <c r="B142" s="29" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" ht="15">
-      <c r="B144" s="29" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" ht="15">
-      <c r="B146" s="29" t="s">
-        <v>355</v>
+    <row r="155" spans="1:10" ht="15">
+      <c r="A155" s="36">
+        <v>3.7</v>
+      </c>
+      <c r="B155" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="B156" s="21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="15">
+      <c r="B157" s="26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="15">
+      <c r="B158" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="15">
+      <c r="B159" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="15">
+      <c r="B160" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15">
+      <c r="D161" s="21" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="15">
+      <c r="D162" s="21" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15">
+      <c r="D163" s="21" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15">
+      <c r="A164" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="B164" s="26" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15">
+      <c r="B165" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="C165" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="F165" s="26" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15">
+      <c r="B166" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="C166" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="F166" s="26" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15">
+      <c r="B167" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="C167" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F167" s="26" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15">
+      <c r="B168" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="C168" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="F168" s="26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15">
+      <c r="A170" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="B170" s="26" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15">
+      <c r="B171" s="28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="B172" s="21">
+        <v>1</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15">
+      <c r="B173" s="21">
+        <v>2</v>
+      </c>
+      <c r="D173" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="B174" s="21">
+        <v>3</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="B175" s="21">
+        <v>4</v>
+      </c>
+      <c r="D175" s="21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="B176" s="21">
+        <v>5</v>
+      </c>
+      <c r="D176" s="21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4">
+      <c r="B177" s="21">
+        <v>6</v>
+      </c>
+      <c r="D177" s="21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" ht="15">
+      <c r="B178" s="21">
+        <v>7</v>
+      </c>
+      <c r="D178" s="21" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4">
+      <c r="B179" s="21">
+        <v>8</v>
+      </c>
+      <c r="D179" s="21" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4">
+      <c r="B180" s="21">
+        <v>9</v>
+      </c>
+      <c r="D180" s="37" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" ht="15">
+      <c r="B181" s="21">
+        <v>10</v>
+      </c>
+      <c r="D181" s="26" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" ht="15">
+      <c r="B182" s="21">
+        <v>11</v>
+      </c>
+      <c r="D182" s="21" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4">
+      <c r="B183" s="21">
+        <v>12</v>
+      </c>
+      <c r="D183" s="21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4">
+      <c r="B184" s="21">
+        <v>13</v>
+      </c>
+      <c r="D184" s="21" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/500LinesEveryday/Revit二次开发笔记.xlsx
+++ b/500LinesEveryday/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738124E5-5B43-467B-9A14-27D090424E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204487D0-07C5-40B3-8F95-8AAB30DD923D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8304" yWindow="780" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8304" yWindow="456" windowWidth="11400" windowHeight="11904" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="422">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -3542,6 +3542,10 @@
   </si>
   <si>
     <t>bool.Parse()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> leetcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4228,10 +4232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B18" activeCellId="1" sqref="C14 B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4404,6 +4408,14 @@
       </c>
       <c r="C13" s="1" t="s">
         <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -5877,8 +5889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
   <dimension ref="A1:J184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView topLeftCell="A167" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/500LinesEveryday/Revit二次开发笔记.xlsx
+++ b/500LinesEveryday/Revit二次开发笔记.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\500LinesEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204487D0-07C5-40B3-8F95-8AAB30DD923D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623ABE20-3F6F-40CB-96D7-6241647ACCF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8304" yWindow="456" windowWidth="11400" windowHeight="11904" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11292" yWindow="420" windowWidth="11400" windowHeight="11904" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="425">
   <si>
     <t>attribute  和 property</t>
   </si>
@@ -2507,10 +2507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果要在值类型和引用类型（堆引用站直）之间转换，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需要了解装箱和拆箱的操作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3546,6 +3542,82 @@
   </si>
   <si>
     <t xml:space="preserve"> leetcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以及</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接赋值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>例如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:  int a = 10; Object obj1 = a;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Conver.To ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>例如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>: object obj2 = 1;     bool c = Convert.ToBoolean(obj2) ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果要在值类型和引用类型（站直堆引用）之间转换，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4234,8 +4306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" activeCellId="1" sqref="C14 B18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4399,7 +4471,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4407,7 +4479,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4415,7 +4487,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -5440,10 +5512,10 @@
     </row>
     <row r="145" spans="1:13">
       <c r="B145" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="F145" t="s">
         <v>355</v>
-      </c>
-      <c r="F145" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="148" spans="1:13" s="33" customFormat="1">
@@ -5463,7 +5535,7 @@
     </row>
     <row r="150" spans="1:13">
       <c r="B150" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -5471,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -5479,7 +5551,7 @@
         <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -5487,12 +5559,12 @@
         <v>3</v>
       </c>
       <c r="B156" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="B158" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="160" spans="1:13" s="33" customFormat="1">
@@ -5512,36 +5584,36 @@
     </row>
     <row r="161" spans="2:5">
       <c r="B161" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="163" spans="2:5">
       <c r="B163" t="s">
+        <v>362</v>
+      </c>
+      <c r="E163" s="8" t="s">
         <v>363</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="164" spans="2:5">
       <c r="B164" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E164" s="8"/>
     </row>
     <row r="165" spans="2:5">
       <c r="B165" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="166" spans="2:5">
       <c r="B166" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="167" spans="2:5">
       <c r="B167" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -5887,10 +5959,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE06C24-2D84-4B0C-9FA7-5F2F2D16264A}">
-  <dimension ref="A1:J184"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6533,37 +6605,37 @@
     </row>
     <row r="120" spans="2:5" ht="15">
       <c r="B120" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E120" s="28"/>
     </row>
     <row r="121" spans="2:5">
       <c r="B121" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E121" s="28"/>
     </row>
     <row r="122" spans="2:5">
       <c r="B122" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E122" s="28"/>
     </row>
     <row r="123" spans="2:5">
       <c r="B123" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E123" s="28"/>
     </row>
     <row r="124" spans="2:5">
       <c r="B124" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E124" s="28"/>
     </row>
     <row r="125" spans="2:5">
       <c r="B125" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E125" s="28"/>
     </row>
@@ -6572,13 +6644,16 @@
     </row>
     <row r="127" spans="2:5">
       <c r="B127" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="E127" s="28"/>
+    </row>
+    <row r="128" spans="2:5" ht="15">
+      <c r="B128" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="E127" s="28"/>
-    </row>
-    <row r="128" spans="2:5">
-      <c r="B128" s="21" t="s">
-        <v>420</v>
+      <c r="D128" s="26" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="130" spans="1:10" s="32" customFormat="1">
@@ -6605,64 +6680,69 @@
     </row>
     <row r="133" spans="1:10" ht="15">
       <c r="B133" s="26" t="s">
-        <v>341</v>
+        <v>424</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="15">
       <c r="B134" s="26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="15">
       <c r="B135" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="15">
       <c r="B136" s="30" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15">
+      <c r="B137" s="28" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15">
+      <c r="B138" s="30" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15">
-      <c r="B137" s="30" t="s">
-        <v>371</v>
-      </c>
-    </row>
     <row r="139" spans="1:10" ht="15">
-      <c r="B139" s="21" t="s">
+      <c r="B139" s="28" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15">
+      <c r="B140" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15">
+      <c r="B141" s="26" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15">
-      <c r="B140" s="26" t="s">
+    <row r="143" spans="1:10" s="32" customFormat="1">
+      <c r="A143" s="35"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="31"/>
+      <c r="I143" s="31"/>
+      <c r="J143" s="31"/>
+    </row>
+    <row r="144" spans="1:10" ht="18">
+      <c r="B144" s="29" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" s="32" customFormat="1">
-      <c r="A142" s="35"/>
-      <c r="B142" s="31"/>
-      <c r="C142" s="31"/>
-      <c r="D142" s="31"/>
-      <c r="E142" s="31"/>
-      <c r="F142" s="31"/>
-      <c r="G142" s="31"/>
-      <c r="H142" s="31"/>
-      <c r="I142" s="31"/>
-      <c r="J142" s="31"/>
-    </row>
-    <row r="143" spans="1:10" ht="18">
-      <c r="B143" s="29" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="15">
-      <c r="B145" s="21" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="15">
       <c r="B146" s="21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="15">
@@ -6670,263 +6750,268 @@
         <v>348</v>
       </c>
     </row>
-    <row r="149" spans="1:10" s="32" customFormat="1">
-      <c r="A149" s="35"/>
-      <c r="B149" s="31"/>
-      <c r="C149" s="31"/>
-      <c r="D149" s="31"/>
-      <c r="E149" s="31"/>
-      <c r="F149" s="31"/>
-      <c r="G149" s="31"/>
-      <c r="H149" s="31"/>
-      <c r="I149" s="31"/>
-      <c r="J149" s="31"/>
-    </row>
-    <row r="150" spans="1:10" ht="18">
-      <c r="B150" s="29" t="s">
+    <row r="148" spans="1:10" ht="15">
+      <c r="B148" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" s="32" customFormat="1">
+      <c r="A150" s="35"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="31"/>
+      <c r="G150" s="31"/>
+      <c r="H150" s="31"/>
+      <c r="I150" s="31"/>
+      <c r="J150" s="31"/>
+    </row>
+    <row r="151" spans="1:10" ht="18">
+      <c r="B151" s="29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="18">
+      <c r="B152" s="29"/>
+    </row>
+    <row r="153" spans="1:10" ht="15">
+      <c r="B153" s="26" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="18">
-      <c r="B151" s="29"/>
-    </row>
-    <row r="152" spans="1:10" ht="15">
-      <c r="B152" s="26" t="s">
+    <row r="155" spans="1:10" ht="15">
+      <c r="B155" s="26" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15">
-      <c r="B154" s="26" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="15">
-      <c r="A155" s="36">
+    <row r="156" spans="1:10" ht="15">
+      <c r="A156" s="36">
         <v>3.7</v>
       </c>
-      <c r="B155" s="26" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10">
-      <c r="B156" s="21" t="s">
+      <c r="B156" s="26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="B157" s="21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="15">
+      <c r="B158" s="26" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="15">
-      <c r="B157" s="26" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="15">
-      <c r="B158" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="C158" s="26" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="15">
       <c r="B159" s="21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="15">
       <c r="B160" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="C160" s="26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15">
+      <c r="B161" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C160" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="15">
-      <c r="D161" s="21" t="s">
+      <c r="D161" s="6" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="15">
       <c r="D162" s="21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="15">
       <c r="D163" s="21" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="15">
-      <c r="A164" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="B164" s="26" t="s">
+      <c r="D164" s="21" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15">
+      <c r="A165" s="36" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="15">
-      <c r="B165" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="C165" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="F165" s="26" t="s">
-        <v>392</v>
+      <c r="B165" s="26" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15">
       <c r="B166" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C166" s="28" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F166" s="26" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="15">
       <c r="B167" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="C167" s="21" t="s">
-        <v>395</v>
+        <v>387</v>
+      </c>
+      <c r="C167" s="28" t="s">
+        <v>392</v>
       </c>
       <c r="F167" s="26" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="15">
       <c r="B168" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="C168" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="F168" s="26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="15">
+      <c r="B169" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="C169" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="F169" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="F168" s="26" t="s">
+    </row>
+    <row r="171" spans="1:6" ht="15">
+      <c r="A171" s="36" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="15">
-      <c r="A170" s="36" t="s">
+      <c r="B171" s="26" t="s">
         <v>399</v>
       </c>
-      <c r="B170" s="26" t="s">
+    </row>
+    <row r="172" spans="1:6" ht="15">
+      <c r="B172" s="28" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="B173" s="21">
+        <v>1</v>
+      </c>
+      <c r="D173" s="21" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15">
-      <c r="B171" s="28" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="B172" s="21">
-        <v>1</v>
-      </c>
-      <c r="D172" s="21" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="15">
-      <c r="B173" s="21">
+    <row r="174" spans="1:6" ht="15">
+      <c r="B174" s="21">
         <v>2</v>
       </c>
-      <c r="D173" s="26" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="B174" s="21">
-        <v>3</v>
-      </c>
-      <c r="D174" s="21" t="s">
-        <v>403</v>
+      <c r="D174" s="26" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="B175" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="B176" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="177" spans="2:4">
       <c r="B177" s="21">
+        <v>5</v>
+      </c>
+      <c r="D177" s="21" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4">
+      <c r="B178" s="21">
         <v>6</v>
       </c>
-      <c r="D177" s="21" t="s">
+      <c r="D178" s="21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" ht="15">
+      <c r="B179" s="21">
+        <v>7</v>
+      </c>
+      <c r="D179" s="21" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" ht="15">
-      <c r="B178" s="21">
-        <v>7</v>
-      </c>
-      <c r="D178" s="21" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4">
-      <c r="B179" s="21">
-        <v>8</v>
-      </c>
-      <c r="D179" s="21" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="180" spans="2:4">
       <c r="B180" s="21">
+        <v>8</v>
+      </c>
+      <c r="D180" s="21" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="B181" s="21">
         <v>9</v>
       </c>
-      <c r="D180" s="37" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" ht="15">
-      <c r="B181" s="21">
-        <v>10</v>
-      </c>
-      <c r="D181" s="26" t="s">
-        <v>416</v>
+      <c r="D181" s="37" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="182" spans="2:4" ht="15">
       <c r="B182" s="21">
+        <v>10</v>
+      </c>
+      <c r="D182" s="26" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" ht="15">
+      <c r="B183" s="21">
         <v>11</v>
       </c>
-      <c r="D182" s="21" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4">
-      <c r="B183" s="21">
-        <v>12</v>
-      </c>
       <c r="D183" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="184" spans="2:4">
       <c r="B184" s="21">
+        <v>12</v>
+      </c>
+      <c r="D184" s="21" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4">
+      <c r="B185" s="21">
         <v>13</v>
       </c>
-      <c r="D184" s="21" t="s">
-        <v>390</v>
+      <c r="D185" s="21" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
